--- a/Pivot Chart.xlsx
+++ b/Pivot Chart.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Analytics\Github data\da15_Task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD19A01-287B-4BEC-BD53-8529A0F5F4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187DB1D-93B5-487B-A849-C6F1C8E09C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pivot chart" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -573,21 +573,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1010" sqref="I1010:Z2009"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
